--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,187 +40,226 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>nothing</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>item</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
+    <t>look</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>love</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>lego</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>ages</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>wait</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -581,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.921875</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.8679245283018868</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9757281553398058</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.859375</v>
+        <v>0.8195020746887967</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.967741935483871</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.967741935483871</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9565217391304348</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,16 +1010,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.8085106382978723</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9444444444444444</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.8070539419087137</v>
+        <v>0.7819225251076041</v>
       </c>
       <c r="L10">
-        <v>389</v>
+        <v>545</v>
       </c>
       <c r="M10">
-        <v>389</v>
+        <v>545</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9272727272727272</v>
+        <v>0.9660194174757282</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.8064516129032258</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9206349206349206</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L12">
-        <v>544</v>
+        <v>71</v>
       </c>
       <c r="M12">
-        <v>544</v>
+        <v>71</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>153</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9090909090909091</v>
+        <v>0.90625</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.6811594202898551</v>
+        <v>0.7003058103975535</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8984375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K14">
         <v>0.6785714285714286</v>
@@ -1250,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.875</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.6727272727272727</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8688524590163934</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.6483180428134556</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="L16">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8214285714285714</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.5873666940114848</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L17">
-        <v>716</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>717</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>503</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.5128205128205128</v>
+        <v>0.5545529122231337</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>676</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>677</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>57</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8157894736842105</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8151658767772512</v>
+        <v>0.7914691943127962</v>
       </c>
       <c r="C20">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.4512534818941504</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L20">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="M20">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>197</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,10 +1592,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.3493975903614458</v>
+        <v>0.4930362116991643</v>
       </c>
       <c r="L21">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="M21">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7702702702702703</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.2751322751322751</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7681159420289855</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.2582738481505516</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="L23">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1739,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7590361445783133</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1718,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.1770376862401402</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="L24">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>939</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1789,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7301587301587301</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1768,7 +1807,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6907216494845361</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C26">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1794,7 +1857,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26">
+        <v>0.2933160285528877</v>
+      </c>
+      <c r="L26">
+        <v>452</v>
+      </c>
+      <c r="M26">
+        <v>452</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1089</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1802,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6829268292682927</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1820,7 +1907,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <v>0.2304995617879053</v>
+      </c>
+      <c r="L27">
+        <v>263</v>
+      </c>
+      <c r="M27">
+        <v>263</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1828,13 +1939,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C28">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1846,7 +1957,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28">
+        <v>0.06648936170212766</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1854,13 +1989,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6302521008403361</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1872,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1880,13 +2015,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.625</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1898,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1906,13 +2041,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6206896551724138</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1924,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1932,13 +2067,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6111111111111112</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1950,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1958,13 +2093,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6111111111111112</v>
+        <v>0.6405797101449275</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1976,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1984,13 +2119,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.599009900990099</v>
+        <v>0.6089108910891089</v>
       </c>
       <c r="C34">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2002,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2010,13 +2145,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5379746835443038</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C35">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2028,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>146</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2036,13 +2171,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4065934065934066</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2054,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2062,13 +2197,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.32</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2080,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>136</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2088,13 +2223,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2536231884057971</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2106,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>206</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2114,13 +2249,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2436708860759494</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="C39">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D39">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2132,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>239</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2140,25 +2275,259 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.112927191679049</v>
+        <v>0.322463768115942</v>
       </c>
       <c r="C40">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D40">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.3</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.2578125</v>
+      </c>
+      <c r="C42">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.2563291139240506</v>
+      </c>
+      <c r="C43">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>81</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.1436781609195402</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.1424050632911392</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <v>0.98</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.1387665198237885</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>63</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.1292719167904904</v>
+      </c>
+      <c r="C48">
+        <v>87</v>
+      </c>
+      <c r="D48">
+        <v>88</v>
+      </c>
+      <c r="E48">
         <v>0.01</v>
       </c>
-      <c r="F40">
+      <c r="F48">
         <v>0.99</v>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>597</v>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.09923664122137404</v>
+      </c>
+      <c r="C49">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
